--- a/unique_characteristicnames.xlsx
+++ b/unique_characteristicnames.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B295DDA0-BF69-4821-BCD7-D85A4B11E8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54DD01A6-401A-4D35-BB16-43472772E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unique_characteristicnames" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -349,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1198,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1356,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1427,7 +1428,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1582,7 +1583,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1702,7 +1703,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1894,7 +1895,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
     </row>

--- a/unique_characteristicnames.xlsx
+++ b/unique_characteristicnames.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54DD01A6-401A-4D35-BB16-43472772E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9843E0-B4EF-4821-9512-35D23022C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20580" yWindow="4815" windowWidth="2400" windowHeight="585"/>
   </bookViews>
   <sheets>
     <sheet name="unique_characteristicnames" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>x</t>
   </si>
@@ -35,12 +34,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>Total suspended solids</t>
+  </si>
+  <si>
     <t>Specific conductance</t>
   </si>
   <si>
-    <t>Total suspended solids</t>
-  </si>
-  <si>
     <t>Chlorophyll a</t>
   </si>
   <si>
@@ -50,39 +49,39 @@
     <t>Calcium</t>
   </si>
   <si>
+    <t>Kjeldahl nitrogen</t>
+  </si>
+  <si>
+    <t>Ammonia-nitrogen</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Depth, Secchi disk depth</t>
+  </si>
+  <si>
     <t>Alkalinity, total</t>
   </si>
   <si>
-    <t>Kjeldahl nitrogen</t>
-  </si>
-  <si>
-    <t>Ammonia-nitrogen</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
+    <t>Depth, bottom</t>
+  </si>
+  <si>
+    <t>Total dissolved solids</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Inorganic nitrogen (nitrate and nitrite)</t>
   </si>
   <si>
     <t>Turbidity</t>
   </si>
   <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>Depth, Secchi disk depth</t>
-  </si>
-  <si>
-    <t>Depth, bottom</t>
-  </si>
-  <si>
-    <t>Total dissolved solids</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Inorganic nitrogen (nitrate and nitrite)</t>
-  </si>
-  <si>
     <t>Orthophosphate</t>
   </si>
   <si>
@@ -98,259 +97,265 @@
     <t>Salinity</t>
   </si>
   <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Organic carbon</t>
+  </si>
+  <si>
     <t>Selenium</t>
   </si>
   <si>
-    <t>Conductivity</t>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Total solids</t>
+  </si>
+  <si>
+    <t>Total carbon</t>
+  </si>
+  <si>
+    <t>Alkalinity</t>
   </si>
   <si>
     <t>Arsenic</t>
   </si>
   <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>Organic carbon</t>
-  </si>
-  <si>
-    <t>Nitrite</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
+    <t>Ammonia and ammonium</t>
+  </si>
+  <si>
+    <t>Apparent color</t>
   </si>
   <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Total solids</t>
-  </si>
-  <si>
-    <t>Apparent color</t>
-  </si>
-  <si>
-    <t>Total carbon</t>
-  </si>
-  <si>
-    <t>Alkalinity</t>
-  </si>
-  <si>
-    <t>Ammonia and ammonium</t>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Silica</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+  </si>
+  <si>
+    <t>Phosphate-phosphorus</t>
   </si>
   <si>
     <t>Nitrogen, mixed forms (NH3), (NH4), organic, (NO2) and (NO3)</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Silica</t>
-  </si>
-  <si>
-    <t>Phosphate-phosphorus</t>
-  </si>
-  <si>
-    <t>Color</t>
+    <t>Ammonia as NH3</t>
+  </si>
+  <si>
+    <t>Inorganic nitrogen (nitrate and nitrite) as N</t>
+  </si>
+  <si>
+    <t>Alkalinity, Carbonate as CaCO3</t>
+  </si>
+  <si>
+    <t>Sulfate as S</t>
+  </si>
+  <si>
+    <t>Escherichia</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Orthophosphate as PO4</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Chlorophyll a, uncorrected for pheophytin</t>
+  </si>
+  <si>
+    <t>Atrazine</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Inorganic carbon</t>
+  </si>
+  <si>
+    <t>Chlorophyll a, corrected for pheophytin</t>
+  </si>
+  <si>
+    <t>Alkalinity, bicarbonate</t>
+  </si>
+  <si>
+    <t>Methylmercury(1+)</t>
+  </si>
+  <si>
+    <t>Depth, Secchi disk depth (choice list)</t>
+  </si>
+  <si>
+    <t>Depth, data-logger (ported)</t>
+  </si>
+  <si>
+    <t>Alkalinity, carbonate</t>
+  </si>
+  <si>
+    <t>Microcystin</t>
+  </si>
+  <si>
+    <t>Ammonium</t>
+  </si>
+  <si>
+    <t>Chlorophyll a - Phytoplankton (suspended)</t>
+  </si>
+  <si>
+    <t>Ammonia-nitrogen as N</t>
+  </si>
+  <si>
+    <t>Alkalinity, Hydroxide as CaCO3</t>
+  </si>
+  <si>
+    <t>Nitrate as N</t>
+  </si>
+  <si>
+    <t>Sulfur Sulfate</t>
+  </si>
+  <si>
+    <t>Microcystin LR</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl nitrogen (Organic N &amp; NH3)</t>
   </si>
   <si>
     <t>Total Phosphorus, mixed forms</t>
   </si>
   <si>
-    <t>Escherichia</t>
+    <t>Depth of water column</t>
+  </si>
+  <si>
+    <t>Microcystin LA</t>
+  </si>
+  <si>
+    <t>Microcystin RR</t>
+  </si>
+  <si>
+    <t>Microcystins</t>
+  </si>
+  <si>
+    <t>Nitrate + Nitrite</t>
+  </si>
+  <si>
+    <t>Water transparency, Secchi disc</t>
+  </si>
+  <si>
+    <t>Nitrite as N</t>
+  </si>
+  <si>
+    <t>Phosphate-phosphorus as P</t>
+  </si>
+  <si>
+    <t>Orthophosphate as P</t>
+  </si>
+  <si>
+    <t>Alkalinity, Bicarbonate as CaCO3</t>
   </si>
   <si>
     <t>Total Kjeldahl nitrogen</t>
   </si>
   <si>
+    <t>Nutrient-nitrogen</t>
+  </si>
+  <si>
+    <t>Microcystin LF</t>
+  </si>
+  <si>
+    <t>Phosphate-phosphorus as PO4</t>
+  </si>
+  <si>
+    <t>Microcystins and nodularins</t>
+  </si>
+  <si>
+    <t>Chlorophyll a, free of pheophytin</t>
+  </si>
+  <si>
+    <t>Transparency, tube with disk</t>
+  </si>
+  <si>
+    <t>Temperature, water, deg F</t>
+  </si>
+  <si>
+    <t>Silicate</t>
+  </si>
+  <si>
     <t>Total Nitrogen, mixed forms</t>
   </si>
   <si>
-    <t>Chlorophyll a, uncorrected for pheophytin</t>
-  </si>
-  <si>
-    <t>Ammonia as NH3</t>
-  </si>
-  <si>
-    <t>Phosphate-phosphorus as P</t>
-  </si>
-  <si>
-    <t>Inorganic nitrogen (nitrate and nitrite) as N</t>
-  </si>
-  <si>
-    <t>Orthophosphate as P</t>
-  </si>
-  <si>
-    <t>Alkalinity, Carbonate as CaCO3</t>
-  </si>
-  <si>
-    <t>Sulfate as S</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Chlorine</t>
-  </si>
-  <si>
-    <t>Orthophosphate as PO4</t>
-  </si>
-  <si>
-    <t>Silicon</t>
-  </si>
-  <si>
-    <t>Chlorophyll</t>
-  </si>
-  <si>
-    <t>Atrazine</t>
-  </si>
-  <si>
-    <t>Carbon</t>
+    <t>Phosphorus as P</t>
+  </si>
+  <si>
+    <t>Total Nitrogen, mixed forms (NH3), (NH4), organic, (NO2) and (NO3)</t>
+  </si>
+  <si>
+    <t>Sulfite</t>
+  </si>
+  <si>
+    <t>Inorganic nitrogen (NO2, NO3, &amp; NH3)</t>
+  </si>
+  <si>
+    <t>Arsenite</t>
+  </si>
+  <si>
+    <t>Arsenate</t>
+  </si>
+  <si>
+    <t>Sulfur-34</t>
   </si>
   <si>
     <t>Sulfur</t>
   </si>
   <si>
-    <t>Alkalinity, carbonate</t>
-  </si>
-  <si>
-    <t>Sulfur Sulfate</t>
-  </si>
-  <si>
-    <t>Chlorophyll a, corrected for pheophytin</t>
-  </si>
-  <si>
-    <t>Methylmercury(1+)</t>
-  </si>
-  <si>
-    <t>Depth, Secchi disk depth (choice list)</t>
-  </si>
-  <si>
-    <t>Depth, data-logger (ported)</t>
-  </si>
-  <si>
-    <t>Ammonium</t>
-  </si>
-  <si>
-    <t>Microcystin</t>
-  </si>
-  <si>
-    <t>Chlorophyll a - Phytoplankton (suspended)</t>
-  </si>
-  <si>
-    <t>Ammonia-nitrogen as N</t>
-  </si>
-  <si>
-    <t>Alkalinity, Hydroxide as CaCO3</t>
-  </si>
-  <si>
-    <t>Nitrate as N</t>
-  </si>
-  <si>
-    <t>Nitrite as N</t>
-  </si>
-  <si>
-    <t>Temperature, water, deg F</t>
-  </si>
-  <si>
-    <t>Microcystin LR</t>
-  </si>
-  <si>
-    <t>Secchi, Horizontal Distance</t>
-  </si>
-  <si>
-    <t>Total Kjeldahl nitrogen (Organic N &amp; NH3)</t>
-  </si>
-  <si>
-    <t>Microcystin LA</t>
-  </si>
-  <si>
-    <t>Depth of water column</t>
-  </si>
-  <si>
-    <t>Atrazine-d5 (ethyl-d5)</t>
-  </si>
-  <si>
-    <t>Microcystin RR</t>
-  </si>
-  <si>
-    <t>Arsenic ion (3+)</t>
-  </si>
-  <si>
-    <t>Microcystins</t>
-  </si>
-  <si>
-    <t>Sulfite</t>
-  </si>
-  <si>
-    <t>Thiosulfate</t>
-  </si>
-  <si>
-    <t>Arsenic ion (5+)</t>
-  </si>
-  <si>
-    <t>Nitrate + Nitrite</t>
-  </si>
-  <si>
-    <t>Calcium as CaCO3</t>
-  </si>
-  <si>
-    <t>Alkalinity, Bicarbonate as CaCO3</t>
-  </si>
-  <si>
-    <t>Microcystin LF</t>
-  </si>
-  <si>
-    <t>Phosphate-phosphorus as PO4</t>
-  </si>
-  <si>
-    <t>Ammonium as N</t>
-  </si>
-  <si>
-    <t>Microcystins and nodularins</t>
-  </si>
-  <si>
-    <t>Chlorophyll a, free of pheophytin</t>
-  </si>
-  <si>
-    <t>Silicate</t>
-  </si>
-  <si>
-    <t>Chlorophyll a (probe relative fluorescence)</t>
-  </si>
-  <si>
-    <t>Phosphorus as P</t>
-  </si>
-  <si>
-    <t>Arsenite</t>
-  </si>
-  <si>
-    <t>Arsenate</t>
-  </si>
-  <si>
-    <t>Sulfur-34</t>
+    <t>Microcystis</t>
+  </si>
+  <si>
+    <t>Turbidity Field</t>
+  </si>
+  <si>
+    <t>Inorganic phosphorus</t>
   </si>
   <si>
     <t>Aluminum, Organic + Inorganic Monomeric (reactive aluminum)</t>
-  </si>
-  <si>
-    <t>Turbidity Field</t>
-  </si>
-  <si>
-    <t>Microcystis</t>
-  </si>
-  <si>
-    <t>come back to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,7 +492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,12 +675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,11 +839,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1199,17 +1196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1220,7 +1214,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1276,7 +1270,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1316,7 +1310,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1332,19 +1326,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1352,15 +1346,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1368,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1376,15 +1370,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1392,15 +1386,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1408,15 +1402,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1424,26 +1418,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1451,7 +1442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1487,7 +1478,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1503,7 +1494,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1543,7 +1534,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1567,7 +1558,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1583,7 +1574,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1703,7 +1694,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1735,7 +1726,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1751,7 +1742,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1759,7 +1750,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1767,7 +1758,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1839,7 +1830,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1847,7 +1838,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1863,7 +1854,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1871,7 +1862,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1879,7 +1870,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1887,7 +1878,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1895,7 +1886,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1919,7 +1910,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1927,7 +1918,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1943,7 +1934,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1959,7 +1950,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1979,15 +1970,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1995,7 +1986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2003,7 +1994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2011,7 +2002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2019,55 +2010,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/unique_characteristicnames.xlsx
+++ b/unique_characteristicnames.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9843E0-B4EF-4821-9512-35D23022C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C74B65-10A1-43A2-A59C-CBB924FF99A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="4815" windowWidth="2400" windowHeight="585"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unique_characteristicnames" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>x</t>
   </si>
@@ -350,12 +361,15 @@
   </si>
   <si>
     <t>Aluminum, Organic + Inorganic Monomeric (reactive aluminum)</t>
+  </si>
+  <si>
+    <t>put this in tn as well (total and disolved), amd ammonia (NH3) - currrently only added to NO3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,9 +859,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1235,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1222,7 +1243,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1230,7 +1251,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1238,7 +1259,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1246,7 +1267,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1254,7 +1275,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1262,7 +1283,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1270,7 +1291,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1278,7 +1299,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1286,7 +1307,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1294,7 +1315,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1302,7 +1323,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1318,7 +1339,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1326,7 +1347,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1334,7 +1355,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1342,7 +1363,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1350,7 +1371,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1358,7 +1379,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1366,7 +1387,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1374,7 +1395,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1382,7 +1403,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1390,7 +1411,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1398,7 +1419,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1406,7 +1427,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1414,7 +1435,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1422,7 +1443,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1430,7 +1451,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1438,7 +1459,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1454,7 +1475,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1462,7 +1483,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1470,7 +1491,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1478,7 +1499,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1486,7 +1507,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1494,7 +1515,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1502,7 +1523,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1510,7 +1531,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1518,7 +1539,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1526,7 +1547,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1542,7 +1563,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1558,7 +1579,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1574,7 +1595,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1582,7 +1603,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1590,7 +1611,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1598,7 +1619,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1606,7 +1627,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1614,7 +1635,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1622,7 +1643,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1630,7 +1651,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1638,7 +1659,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1654,7 +1675,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1662,7 +1683,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1670,7 +1691,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1678,7 +1699,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1686,7 +1707,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1702,7 +1723,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1710,7 +1731,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1718,7 +1739,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1734,7 +1755,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1742,7 +1763,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1758,7 +1779,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1766,7 +1787,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1774,7 +1795,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1782,7 +1803,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1790,7 +1811,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1798,7 +1819,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1814,7 +1835,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1822,7 +1843,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1830,7 +1851,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1862,7 +1883,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1878,7 +1899,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1886,7 +1907,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1894,7 +1915,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1902,7 +1923,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1910,7 +1931,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1918,7 +1939,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1934,7 +1955,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1950,7 +1971,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1958,7 +1979,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1966,11 +1987,11 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1978,79 +1999,82 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2058,27 +2082,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
     </row>

--- a/unique_characteristicnames.xlsx
+++ b/unique_characteristicnames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C74B65-10A1-43A2-A59C-CBB924FF99A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD923DE-D482-4DDB-BD47-3F433E8355B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1467,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
     </row>

--- a/unique_characteristicnames.xlsx
+++ b/unique_characteristicnames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD923DE-D482-4DDB-BD47-3F433E8355B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA667D4-0CF0-4F4E-870B-5BA6A00DC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
